--- a/linkedin_profiles - RawData.xlsx
+++ b/linkedin_profiles - RawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bombom\PycharmProjects\scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B8B67F-4BB8-4C80-9BE5-7C0ECD7545EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEA5711-5E16-4361-BB96-3F108739642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,30 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t>Sharief kundo Mudrikal</t>
+    <t>Name1</t>
   </si>
   <si>
-    <t>Jaydee Ballaho</t>
+    <t>Name2</t>
   </si>
   <si>
-    <t>Jameel Awad</t>
-  </si>
-  <si>
-    <t>Marie Colleen Tingas</t>
-  </si>
-  <si>
-    <t>Allen Tan</t>
-  </si>
-  <si>
-    <t>Aldrikz Suarez</t>
-  </si>
-  <si>
-    <t>Alfaisal Sappari</t>
+    <t>Name3</t>
   </si>
 </sst>
 </file>
@@ -406,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,26 +428,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
